--- a/Tipos de Industrias/6.21.xlsx
+++ b/Tipos de Industrias/6.21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tipos de Industrias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D79BA6B-1D69-4978-816D-A38E337C3200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A3B83-639F-4D2F-8188-6F592AF16413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BC90A3B-680E-4FB6-9E70-D0538DF81E76}"/>
   </bookViews>
@@ -562,30 +562,6 @@
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1014,13 +990,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1034,6 +1003,37 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,39 +1049,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25ADE062-4578-46CB-ADF8-A0D5D9B51341}" name="Empresas_Rubro_U" displayName="Empresas_Rubro_U" ref="A1:AD263" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25ADE062-4578-46CB-ADF8-A0D5D9B51341}" name="Empresas_Rubro_U" displayName="Empresas_Rubro_U" ref="A1:AD263" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A1:AD263" xr:uid="{BC4FDDCD-9187-41E8-93C2-A1F621697AEB}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{8D5196CC-EA56-4AD5-AB56-33D3B54929B5}" name="Año Comercial" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{90DF2B99-DCAF-4DB7-937F-BFECE8F6B1A7}" name="Id_Comuna" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{628DBC87-7F02-4F75-BD15-BFB262B34F4D}" name="Comuna del domicilio o casa matriz" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{82C84FED-4D1F-4406-8F06-AB7D623ACC8B}" name="Id_Región" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{EBC0DB28-6B1F-4302-BFE8-2FDF8E433500}" name="Region del domicilio o casa matriz" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C71D2DCF-8418-4553-8BA0-362EB6446725}" name="Actividad economica" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{ADDD1F23-B637-4A17-B9DA-F39AFAA31BF4}" name="Subrubro economico" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{0DA664DF-1A93-44E5-85D0-E25891B857F5}" name="Rubro economico" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{ADE41EED-6E50-4053-AD97-CC995AAE0B20}" name="Id_categoría" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{4D40240B-ED19-461B-803F-B0ED0A420D9D}" name="Categoría" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{CAA5B113-B0FD-4972-9FD7-5CE50B6FF36A}" name="Número de empresas" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{471AC6F0-AF38-4344-8B4B-93449D64DC52}" name="Ventas anuales en UF" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{161338BD-26C5-4754-9837-D400B255FD5C}" name="Número de trabajadores dependientes informados" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{3B22325F-C263-4227-9D75-DA540F0B0D8F}" name="Renta neta informada" dataDxfId="19"/>
-    <tableColumn id="21" xr3:uid="{CFE76AA0-D993-4DE4-BDFD-5C0AA4D64501}" name="Trabajadores ponderados por meses trabajados" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{5E7A657A-3C9A-4A54-B1E3-995CD89FDE5C}" name="Número de trabajadores dependientes de género femenino informados" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{B42543B0-CD59-4276-AEDD-D9DB3F6D826D}" name="Renta neta informada, trabajadores de género femenino" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{C35495CB-F266-40CA-9917-114BD388021A}" name="Trabajadores de género femenino ponderados por meses trabajados" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{5216435C-5082-45EF-B7AF-B470B508F932}" name="Número de trabajadores dependientes de género masculino informados" dataDxfId="14"/>
-    <tableColumn id="26" xr3:uid="{ADD8AD95-53D3-42B6-9F42-B558BA94901F}" name="Renta neta informada, trabajadores de género masculino" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{92C56E6B-1062-4793-8A09-30C37EE3B27C}" name="Trabajadores de género masculino ponderados por meses trabajados" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{E4945C9D-79F6-4678-9555-F50CB777EDC1}" name="Número de trabajadores a honorarios informados" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{DDFB8644-CE30-4844-8595-B2CCDFE273B0}" name="Honorarios pagados informados" dataDxfId="10"/>
-    <tableColumn id="30" xr3:uid="{46A2BF12-0716-4E05-9D2D-EF810F7AF426}" name="Trabajadores a honorarios ponderados por meses trabajados" dataDxfId="9"/>
-    <tableColumn id="31" xr3:uid="{F78DE54B-CCBB-48B4-8E9D-D5E8357F5833}" name="Número de trabajadores a honorarios de género femenino informados" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{13FB5139-1A93-4F29-8E0F-AACCB0D064F7}" name="Honorarios pagados informados a trabajadores de género femenino" dataDxfId="7"/>
-    <tableColumn id="33" xr3:uid="{A731A627-6B50-43F9-BA8F-1FAA78CE06DC}" name="Trabajadores a honorarios de género femenino ponderados por meses trabajados" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{11AD0592-19A5-4A61-9C59-3683FE5C9C73}" name="Número de trabajadores a honorarios de género masculino informados" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{9E9A220C-49C3-4B61-B918-CC232DA4E038}" name="Honorarios pagados informados a trabajadores de género masculino" dataDxfId="4"/>
-    <tableColumn id="36" xr3:uid="{C91F469A-58B1-449A-97DE-2584DCB2D684}" name="Trabajadores a honorarios de género masculino ponderados por meses trabajados" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8D5196CC-EA56-4AD5-AB56-33D3B54929B5}" name="Año Comercial" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{90DF2B99-DCAF-4DB7-937F-BFECE8F6B1A7}" name="Id_Comuna" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{628DBC87-7F02-4F75-BD15-BFB262B34F4D}" name="Comuna del domicilio o casa matriz" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{82C84FED-4D1F-4406-8F06-AB7D623ACC8B}" name="Id_Región" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{EBC0DB28-6B1F-4302-BFE8-2FDF8E433500}" name="Region del domicilio o casa matriz" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{C71D2DCF-8418-4553-8BA0-362EB6446725}" name="Actividad economica" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{ADDD1F23-B637-4A17-B9DA-F39AFAA31BF4}" name="Subrubro economico" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{0DA664DF-1A93-44E5-85D0-E25891B857F5}" name="Rubro economico" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{ADE41EED-6E50-4053-AD97-CC995AAE0B20}" name="Id_categoría" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{4D40240B-ED19-461B-803F-B0ED0A420D9D}" name="Categoría" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{CAA5B113-B0FD-4972-9FD7-5CE50B6FF36A}" name="Número de empresas" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{471AC6F0-AF38-4344-8B4B-93449D64DC52}" name="Ventas anuales en UF" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{161338BD-26C5-4754-9837-D400B255FD5C}" name="Número de trabajadores dependientes informados" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{3B22325F-C263-4227-9D75-DA540F0B0D8F}" name="Renta neta informada" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{CFE76AA0-D993-4DE4-BDFD-5C0AA4D64501}" name="Trabajadores ponderados por meses trabajados" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{5E7A657A-3C9A-4A54-B1E3-995CD89FDE5C}" name="Número de trabajadores dependientes de género femenino informados" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{B42543B0-CD59-4276-AEDD-D9DB3F6D826D}" name="Renta neta informada, trabajadores de género femenino" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{C35495CB-F266-40CA-9917-114BD388021A}" name="Trabajadores de género femenino ponderados por meses trabajados" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{5216435C-5082-45EF-B7AF-B470B508F932}" name="Número de trabajadores dependientes de género masculino informados" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{ADD8AD95-53D3-42B6-9F42-B558BA94901F}" name="Renta neta informada, trabajadores de género masculino" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{92C56E6B-1062-4793-8A09-30C37EE3B27C}" name="Trabajadores de género masculino ponderados por meses trabajados" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{E4945C9D-79F6-4678-9555-F50CB777EDC1}" name="Número de trabajadores a honorarios informados" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{DDFB8644-CE30-4844-8595-B2CCDFE273B0}" name="Honorarios pagados informados" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{46A2BF12-0716-4E05-9D2D-EF810F7AF426}" name="Trabajadores a honorarios ponderados por meses trabajados" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{F78DE54B-CCBB-48B4-8E9D-D5E8357F5833}" name="Número de trabajadores a honorarios de género femenino informados" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{13FB5139-1A93-4F29-8E0F-AACCB0D064F7}" name="Honorarios pagados informados a trabajadores de género femenino" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{A731A627-6B50-43F9-BA8F-1FAA78CE06DC}" name="Trabajadores a honorarios de género femenino ponderados por meses trabajados" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{11AD0592-19A5-4A61-9C59-3683FE5C9C73}" name="Número de trabajadores a honorarios de género masculino informados" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{9E9A220C-49C3-4B61-B918-CC232DA4E038}" name="Honorarios pagados informados a trabajadores de género masculino" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{C91F469A-58B1-449A-97DE-2584DCB2D684}" name="Trabajadores a honorarios de género masculino ponderados por meses trabajados" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692C6F1-D1DC-4C3B-9CDE-CF46A593B62A}">
   <dimension ref="A1:AD263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tipos de Industrias/6.21.xlsx
+++ b/Tipos de Industrias/6.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Tipos de Industrias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A3B83-639F-4D2F-8188-6F592AF16413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2295A5-67CE-4ADC-BA2D-E339C4EA43A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BC90A3B-680E-4FB6-9E70-D0538DF81E76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5BC90A3B-680E-4FB6-9E70-D0538DF81E76}"/>
   </bookViews>
   <sheets>
     <sheet name="U - Actividades de organizacion" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="149">
   <si>
     <t>Año Comercial</t>
   </si>
@@ -459,6 +459,30 @@
   <si>
     <t>Corresponde a la suma de los honorarios  (Acumulando todos los meses del año tributario presentado) para trabajadores de sexo masculino</t>
   </si>
+  <si>
+    <t>Frutillar</t>
+  </si>
+  <si>
+    <t>Quillota</t>
+  </si>
+  <si>
+    <t>Romeral</t>
+  </si>
+  <si>
+    <t>La Unión</t>
+  </si>
+  <si>
+    <t>Linares</t>
+  </si>
+  <si>
+    <t>Coronel</t>
+  </si>
+  <si>
+    <t>Curicó</t>
+  </si>
+  <si>
+    <t>El Tabo</t>
+  </si>
 </sst>
 </file>
 
@@ -542,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -550,6 +574,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,8 +1075,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25ADE062-4578-46CB-ADF8-A0D5D9B51341}" name="Empresas_Rubro_U" displayName="Empresas_Rubro_U" ref="A1:AD263" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:AD263" xr:uid="{BC4FDDCD-9187-41E8-93C2-A1F621697AEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25ADE062-4578-46CB-ADF8-A0D5D9B51341}" name="Empresas_Rubro_U" displayName="Empresas_Rubro_U" ref="A1:AD286" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:AD286" xr:uid="{BC4FDDCD-9187-41E8-93C2-A1F621697AEB}"/>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{8D5196CC-EA56-4AD5-AB56-33D3B54929B5}" name="Año Comercial" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{90DF2B99-DCAF-4DB7-937F-BFECE8F6B1A7}" name="Id_Comuna" dataDxfId="30"/>
@@ -1405,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692C6F1-D1DC-4C3B-9CDE-CF46A593B62A}">
-  <dimension ref="A1:AD263"/>
+  <dimension ref="A1:AD286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25637,6 +25663,2122 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A264" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B264" s="7">
+        <v>10105</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D264" s="7">
+        <v>10</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G264" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I264" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K264" s="8">
+        <v>1</v>
+      </c>
+      <c r="L264" s="8">
+        <v>0</v>
+      </c>
+      <c r="M264" s="8">
+        <v>0</v>
+      </c>
+      <c r="N264" s="8">
+        <v>0</v>
+      </c>
+      <c r="O264" s="8">
+        <v>0</v>
+      </c>
+      <c r="P264" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="8">
+        <v>0</v>
+      </c>
+      <c r="R264" s="8">
+        <v>0</v>
+      </c>
+      <c r="S264" s="8">
+        <v>0</v>
+      </c>
+      <c r="T264" s="8">
+        <v>0</v>
+      </c>
+      <c r="U264" s="8">
+        <v>0</v>
+      </c>
+      <c r="V264" s="8">
+        <v>0</v>
+      </c>
+      <c r="W264" s="8">
+        <v>0</v>
+      </c>
+      <c r="X264" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y264" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z264" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A265" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B265" s="7">
+        <v>12101</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" s="7">
+        <v>12</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I265" s="2">
+        <v>220306021</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K265" s="8">
+        <v>1</v>
+      </c>
+      <c r="L265" s="8">
+        <v>0</v>
+      </c>
+      <c r="M265" s="8">
+        <v>0</v>
+      </c>
+      <c r="N265" s="8">
+        <v>0</v>
+      </c>
+      <c r="O265" s="8">
+        <v>0</v>
+      </c>
+      <c r="P265" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="8">
+        <v>0</v>
+      </c>
+      <c r="R265" s="8">
+        <v>0</v>
+      </c>
+      <c r="S265" s="8">
+        <v>0</v>
+      </c>
+      <c r="T265" s="8">
+        <v>0</v>
+      </c>
+      <c r="U265" s="8">
+        <v>0</v>
+      </c>
+      <c r="V265" s="8">
+        <v>0</v>
+      </c>
+      <c r="W265" s="8">
+        <v>0</v>
+      </c>
+      <c r="X265" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A266" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B266" s="8">
+        <v>5501</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D266" s="8">
+        <v>5</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I266" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K266" s="8">
+        <v>1</v>
+      </c>
+      <c r="L266" s="8">
+        <v>0</v>
+      </c>
+      <c r="M266" s="8">
+        <v>0</v>
+      </c>
+      <c r="N266" s="8">
+        <v>0</v>
+      </c>
+      <c r="O266" s="8">
+        <v>0</v>
+      </c>
+      <c r="P266" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="8">
+        <v>0</v>
+      </c>
+      <c r="R266" s="8">
+        <v>0</v>
+      </c>
+      <c r="S266" s="8">
+        <v>0</v>
+      </c>
+      <c r="T266" s="8">
+        <v>0</v>
+      </c>
+      <c r="U266" s="8">
+        <v>0</v>
+      </c>
+      <c r="V266" s="8">
+        <v>0</v>
+      </c>
+      <c r="W266" s="8">
+        <v>0</v>
+      </c>
+      <c r="X266" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y266" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z266" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A267" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B267" s="7">
+        <v>7306</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D267" s="7">
+        <v>7</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="4">
+        <v>220306021</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K267" s="8">
+        <v>1</v>
+      </c>
+      <c r="L267" s="8">
+        <v>0</v>
+      </c>
+      <c r="M267" s="8">
+        <v>0</v>
+      </c>
+      <c r="N267" s="8">
+        <v>0</v>
+      </c>
+      <c r="O267" s="8">
+        <v>0</v>
+      </c>
+      <c r="P267" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="8">
+        <v>0</v>
+      </c>
+      <c r="R267" s="8">
+        <v>0</v>
+      </c>
+      <c r="S267" s="8">
+        <v>0</v>
+      </c>
+      <c r="T267" s="8">
+        <v>0</v>
+      </c>
+      <c r="U267" s="8">
+        <v>0</v>
+      </c>
+      <c r="V267" s="8">
+        <v>0</v>
+      </c>
+      <c r="W267" s="8">
+        <v>0</v>
+      </c>
+      <c r="X267" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z267" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A268" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B268" s="7">
+        <v>13101</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" s="7">
+        <v>13</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I268" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K268" s="8">
+        <v>1</v>
+      </c>
+      <c r="L268" s="8">
+        <v>0</v>
+      </c>
+      <c r="M268" s="8">
+        <v>0</v>
+      </c>
+      <c r="N268" s="8">
+        <v>0</v>
+      </c>
+      <c r="O268" s="8">
+        <v>0</v>
+      </c>
+      <c r="P268" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="8">
+        <v>0</v>
+      </c>
+      <c r="R268" s="8">
+        <v>0</v>
+      </c>
+      <c r="S268" s="8">
+        <v>0</v>
+      </c>
+      <c r="T268" s="8">
+        <v>0</v>
+      </c>
+      <c r="U268" s="8">
+        <v>0</v>
+      </c>
+      <c r="V268" s="8">
+        <v>0</v>
+      </c>
+      <c r="W268" s="8">
+        <v>0</v>
+      </c>
+      <c r="X268" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A269" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B269" s="7">
+        <v>14201</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269" s="7">
+        <v>14</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G269" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H269" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I269" s="2">
+        <v>220306021</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K269" s="8">
+        <v>1</v>
+      </c>
+      <c r="L269" s="8">
+        <v>0</v>
+      </c>
+      <c r="M269" s="8">
+        <v>0</v>
+      </c>
+      <c r="N269" s="8">
+        <v>0</v>
+      </c>
+      <c r="O269" s="8">
+        <v>0</v>
+      </c>
+      <c r="P269" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="8">
+        <v>0</v>
+      </c>
+      <c r="R269" s="8">
+        <v>0</v>
+      </c>
+      <c r="S269" s="8">
+        <v>0</v>
+      </c>
+      <c r="T269" s="8">
+        <v>0</v>
+      </c>
+      <c r="U269" s="8">
+        <v>0</v>
+      </c>
+      <c r="V269" s="8">
+        <v>0</v>
+      </c>
+      <c r="W269" s="8">
+        <v>0</v>
+      </c>
+      <c r="X269" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A270" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B270" s="7">
+        <v>1404</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D270" s="7">
+        <v>1</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I270" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K270" s="8">
+        <v>1</v>
+      </c>
+      <c r="L270" s="8">
+        <v>0</v>
+      </c>
+      <c r="M270" s="8">
+        <v>1</v>
+      </c>
+      <c r="N270" s="8">
+        <v>0</v>
+      </c>
+      <c r="O270" s="8">
+        <v>1</v>
+      </c>
+      <c r="P270" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="8">
+        <v>0</v>
+      </c>
+      <c r="R270" s="8">
+        <v>0</v>
+      </c>
+      <c r="S270" s="8">
+        <v>1</v>
+      </c>
+      <c r="T270" s="8">
+        <v>0</v>
+      </c>
+      <c r="U270" s="8">
+        <v>1</v>
+      </c>
+      <c r="V270" s="8">
+        <v>0</v>
+      </c>
+      <c r="W270" s="8">
+        <v>0</v>
+      </c>
+      <c r="X270" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B271" s="7">
+        <v>13115</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D271" s="7">
+        <v>13</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I271" s="4">
+        <v>220306021</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K271" s="8">
+        <v>1</v>
+      </c>
+      <c r="L271" s="8">
+        <v>0</v>
+      </c>
+      <c r="M271" s="8">
+        <v>0</v>
+      </c>
+      <c r="N271" s="8">
+        <v>0</v>
+      </c>
+      <c r="O271" s="8">
+        <v>0</v>
+      </c>
+      <c r="P271" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q271" s="8">
+        <v>0</v>
+      </c>
+      <c r="R271" s="8">
+        <v>0</v>
+      </c>
+      <c r="S271" s="8">
+        <v>0</v>
+      </c>
+      <c r="T271" s="8">
+        <v>0</v>
+      </c>
+      <c r="U271" s="8">
+        <v>0</v>
+      </c>
+      <c r="V271" s="8">
+        <v>1</v>
+      </c>
+      <c r="W271" s="8">
+        <v>0</v>
+      </c>
+      <c r="X271" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y271" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z271" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AB271" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A272" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B272" s="7">
+        <v>15101</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D272" s="7">
+        <v>15</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H272" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I272" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K272" s="8">
+        <v>5</v>
+      </c>
+      <c r="L272" s="8">
+        <v>0</v>
+      </c>
+      <c r="M272" s="8">
+        <v>1</v>
+      </c>
+      <c r="N272" s="8">
+        <v>0</v>
+      </c>
+      <c r="O272" s="8">
+        <v>1</v>
+      </c>
+      <c r="P272" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="8">
+        <v>0</v>
+      </c>
+      <c r="R272" s="8">
+        <v>0</v>
+      </c>
+      <c r="S272" s="8">
+        <v>1</v>
+      </c>
+      <c r="T272" s="8">
+        <v>0</v>
+      </c>
+      <c r="U272" s="8">
+        <v>1</v>
+      </c>
+      <c r="V272" s="8">
+        <v>8</v>
+      </c>
+      <c r="W272" s="8">
+        <v>0</v>
+      </c>
+      <c r="X272" s="8">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="Y272" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z272" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="8">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="AB272" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B273" s="7">
+        <v>13110</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D273" s="7">
+        <v>13</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G273" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H273" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I273" s="2">
+        <v>220306021</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K273" s="8">
+        <v>1</v>
+      </c>
+      <c r="L273" s="8">
+        <v>0</v>
+      </c>
+      <c r="M273" s="8">
+        <v>0</v>
+      </c>
+      <c r="N273" s="8">
+        <v>0</v>
+      </c>
+      <c r="O273" s="8">
+        <v>0</v>
+      </c>
+      <c r="P273" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="8">
+        <v>0</v>
+      </c>
+      <c r="R273" s="8">
+        <v>0</v>
+      </c>
+      <c r="S273" s="8">
+        <v>0</v>
+      </c>
+      <c r="T273" s="8">
+        <v>0</v>
+      </c>
+      <c r="U273" s="8">
+        <v>0</v>
+      </c>
+      <c r="V273" s="8">
+        <v>1</v>
+      </c>
+      <c r="W273" s="8">
+        <v>0</v>
+      </c>
+      <c r="X273" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Y273" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA273" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC273" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A274" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B274" s="7">
+        <v>7401</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D274" s="7">
+        <v>7</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G274" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H274" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I274" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K274" s="8">
+        <v>1</v>
+      </c>
+      <c r="L274" s="8">
+        <v>0</v>
+      </c>
+      <c r="M274" s="8">
+        <v>0</v>
+      </c>
+      <c r="N274" s="8">
+        <v>0</v>
+      </c>
+      <c r="O274" s="8">
+        <v>0</v>
+      </c>
+      <c r="P274" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="8">
+        <v>0</v>
+      </c>
+      <c r="R274" s="8">
+        <v>0</v>
+      </c>
+      <c r="S274" s="8">
+        <v>0</v>
+      </c>
+      <c r="T274" s="8">
+        <v>0</v>
+      </c>
+      <c r="U274" s="8">
+        <v>0</v>
+      </c>
+      <c r="V274" s="8">
+        <v>2</v>
+      </c>
+      <c r="W274" s="8">
+        <v>0</v>
+      </c>
+      <c r="X274" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="Y274" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z274" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AB274" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC274" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD274" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B275" s="7">
+        <v>8102</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D275" s="7">
+        <v>8</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I275" s="4">
+        <v>220306021</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K275" s="8">
+        <v>1</v>
+      </c>
+      <c r="L275" s="8">
+        <v>0</v>
+      </c>
+      <c r="M275" s="8">
+        <v>0</v>
+      </c>
+      <c r="N275" s="8">
+        <v>0</v>
+      </c>
+      <c r="O275" s="8">
+        <v>0</v>
+      </c>
+      <c r="P275" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="8">
+        <v>0</v>
+      </c>
+      <c r="R275" s="8">
+        <v>0</v>
+      </c>
+      <c r="S275" s="8">
+        <v>0</v>
+      </c>
+      <c r="T275" s="8">
+        <v>0</v>
+      </c>
+      <c r="U275" s="8">
+        <v>0</v>
+      </c>
+      <c r="V275" s="8">
+        <v>3</v>
+      </c>
+      <c r="W275" s="8">
+        <v>0</v>
+      </c>
+      <c r="X275" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="Y275" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z275" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB275" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC275" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A276" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B276" s="7">
+        <v>7301</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D276" s="7">
+        <v>7</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I276" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K276" s="8">
+        <v>1</v>
+      </c>
+      <c r="L276" s="8">
+        <v>0</v>
+      </c>
+      <c r="M276" s="8">
+        <v>0</v>
+      </c>
+      <c r="N276" s="8">
+        <v>0</v>
+      </c>
+      <c r="O276" s="8">
+        <v>0</v>
+      </c>
+      <c r="P276" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q276" s="8">
+        <v>0</v>
+      </c>
+      <c r="R276" s="8">
+        <v>0</v>
+      </c>
+      <c r="S276" s="8">
+        <v>0</v>
+      </c>
+      <c r="T276" s="8">
+        <v>0</v>
+      </c>
+      <c r="U276" s="8">
+        <v>0</v>
+      </c>
+      <c r="V276" s="8">
+        <v>3</v>
+      </c>
+      <c r="W276" s="8">
+        <v>0</v>
+      </c>
+      <c r="X276" s="8">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="Y276" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z276" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AB276" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC276" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A277" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B277" s="7">
+        <v>13132</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D277" s="7">
+        <v>13</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I277" s="2">
+        <v>220306021</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K277" s="8">
+        <v>4</v>
+      </c>
+      <c r="L277" s="8">
+        <v>0</v>
+      </c>
+      <c r="M277" s="8">
+        <v>190</v>
+      </c>
+      <c r="N277" s="8">
+        <v>0</v>
+      </c>
+      <c r="O277" s="8">
+        <v>177.917</v>
+      </c>
+      <c r="P277" s="8">
+        <v>55</v>
+      </c>
+      <c r="Q277" s="8">
+        <v>0</v>
+      </c>
+      <c r="R277" s="8">
+        <v>49.667000000000002</v>
+      </c>
+      <c r="S277" s="8">
+        <v>135</v>
+      </c>
+      <c r="T277" s="8">
+        <v>0</v>
+      </c>
+      <c r="U277" s="8">
+        <v>128.25</v>
+      </c>
+      <c r="V277" s="8">
+        <v>5</v>
+      </c>
+      <c r="W277" s="8">
+        <v>0</v>
+      </c>
+      <c r="X277" s="8">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Y277" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z277" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AB277" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC277" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="7">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A278" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B278" s="7">
+        <v>5605</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D278" s="7">
+        <v>5</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I278" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K278" s="8">
+        <v>1</v>
+      </c>
+      <c r="L278" s="8">
+        <v>0</v>
+      </c>
+      <c r="M278" s="8">
+        <v>0</v>
+      </c>
+      <c r="N278" s="8">
+        <v>0</v>
+      </c>
+      <c r="O278" s="8">
+        <v>0</v>
+      </c>
+      <c r="P278" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="8">
+        <v>0</v>
+      </c>
+      <c r="R278" s="8">
+        <v>0</v>
+      </c>
+      <c r="S278" s="8">
+        <v>0</v>
+      </c>
+      <c r="T278" s="8">
+        <v>0</v>
+      </c>
+      <c r="U278" s="8">
+        <v>0</v>
+      </c>
+      <c r="V278" s="8">
+        <v>18</v>
+      </c>
+      <c r="W278" s="8">
+        <v>0</v>
+      </c>
+      <c r="X278" s="8">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="Y278" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z278" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA278" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="AB278" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC278" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="7">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A279" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B279" s="7">
+        <v>9108</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D279" s="7">
+        <v>9</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H279" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I279" s="4">
+        <v>220306021</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K279" s="8">
+        <v>1</v>
+      </c>
+      <c r="L279" s="8">
+        <v>0</v>
+      </c>
+      <c r="M279" s="8">
+        <v>14</v>
+      </c>
+      <c r="N279" s="8">
+        <v>0</v>
+      </c>
+      <c r="O279" s="8">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="P279" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q279" s="8">
+        <v>0</v>
+      </c>
+      <c r="R279" s="8">
+        <v>3.5830000000000002</v>
+      </c>
+      <c r="S279" s="8">
+        <v>7</v>
+      </c>
+      <c r="T279" s="8">
+        <v>0</v>
+      </c>
+      <c r="U279" s="8">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="V279" s="8">
+        <v>8</v>
+      </c>
+      <c r="W279" s="8">
+        <v>0</v>
+      </c>
+      <c r="X279" s="8">
+        <v>1.417</v>
+      </c>
+      <c r="Y279" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z279" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AB279" s="8">
+        <v>6</v>
+      </c>
+      <c r="AC279" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="7">
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A280" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B280" s="7">
+        <v>8101</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D280" s="7">
+        <v>8</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I280" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K280" s="8">
+        <v>1</v>
+      </c>
+      <c r="L280" s="8">
+        <v>0</v>
+      </c>
+      <c r="M280" s="8">
+        <v>1</v>
+      </c>
+      <c r="N280" s="8">
+        <v>0</v>
+      </c>
+      <c r="O280" s="8">
+        <v>1</v>
+      </c>
+      <c r="P280" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="8">
+        <v>0</v>
+      </c>
+      <c r="R280" s="8">
+        <v>1</v>
+      </c>
+      <c r="S280" s="8">
+        <v>0</v>
+      </c>
+      <c r="T280" s="8">
+        <v>0</v>
+      </c>
+      <c r="U280" s="8">
+        <v>0</v>
+      </c>
+      <c r="V280" s="8">
+        <v>7</v>
+      </c>
+      <c r="W280" s="8">
+        <v>0</v>
+      </c>
+      <c r="X280" s="8">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="Y280" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z280" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA280" s="8">
+        <v>1.583</v>
+      </c>
+      <c r="AB280" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC280" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="7">
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A281" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B281" s="7">
+        <v>13114</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D281" s="7">
+        <v>13</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H281" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I281" s="2">
+        <v>220306021</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K281" s="8">
+        <v>9</v>
+      </c>
+      <c r="L281" s="8">
+        <v>0</v>
+      </c>
+      <c r="M281" s="8">
+        <v>53</v>
+      </c>
+      <c r="N281" s="8">
+        <v>0</v>
+      </c>
+      <c r="O281" s="8">
+        <v>47.667000000000002</v>
+      </c>
+      <c r="P281" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q281" s="8">
+        <v>0</v>
+      </c>
+      <c r="R281" s="8">
+        <v>21.082999999999998</v>
+      </c>
+      <c r="S281" s="8">
+        <v>29</v>
+      </c>
+      <c r="T281" s="8">
+        <v>0</v>
+      </c>
+      <c r="U281" s="8">
+        <v>26.582999999999998</v>
+      </c>
+      <c r="V281" s="8">
+        <v>17</v>
+      </c>
+      <c r="W281" s="8">
+        <v>0</v>
+      </c>
+      <c r="X281" s="8">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="Y281" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z281" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA281" s="8">
+        <v>1.833</v>
+      </c>
+      <c r="AB281" s="8">
+        <v>11</v>
+      </c>
+      <c r="AC281" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="7">
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A282" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B282" s="7">
+        <v>5101</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" s="7">
+        <v>5</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G282" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H282" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I282" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K282" s="8">
+        <v>1</v>
+      </c>
+      <c r="L282" s="8">
+        <v>0</v>
+      </c>
+      <c r="M282" s="8">
+        <v>0</v>
+      </c>
+      <c r="N282" s="8">
+        <v>0</v>
+      </c>
+      <c r="O282" s="8">
+        <v>0</v>
+      </c>
+      <c r="P282" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="8">
+        <v>0</v>
+      </c>
+      <c r="R282" s="8">
+        <v>0</v>
+      </c>
+      <c r="S282" s="8">
+        <v>0</v>
+      </c>
+      <c r="T282" s="8">
+        <v>0</v>
+      </c>
+      <c r="U282" s="8">
+        <v>0</v>
+      </c>
+      <c r="V282" s="8">
+        <v>5</v>
+      </c>
+      <c r="W282" s="8">
+        <v>0</v>
+      </c>
+      <c r="X282" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y282" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z282" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA282" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB282" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC282" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="7">
+        <v>1.917</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A283" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B283" s="7">
+        <v>11101</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D283" s="7">
+        <v>11</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G283" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="4">
+        <v>220306021</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K283" s="8">
+        <v>1</v>
+      </c>
+      <c r="L283" s="8">
+        <v>0</v>
+      </c>
+      <c r="M283" s="8">
+        <v>16</v>
+      </c>
+      <c r="N283" s="8">
+        <v>0</v>
+      </c>
+      <c r="O283" s="8">
+        <v>11.917</v>
+      </c>
+      <c r="P283" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q283" s="8">
+        <v>0</v>
+      </c>
+      <c r="R283" s="8">
+        <v>8</v>
+      </c>
+      <c r="S283" s="8">
+        <v>6</v>
+      </c>
+      <c r="T283" s="8">
+        <v>0</v>
+      </c>
+      <c r="U283" s="8">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="V283" s="8">
+        <v>23</v>
+      </c>
+      <c r="W283" s="8">
+        <v>0</v>
+      </c>
+      <c r="X283" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="Y283" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z283" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA283" s="8">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="AB283" s="8">
+        <v>9</v>
+      </c>
+      <c r="AC283" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="7">
+        <v>2.4169999999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A284" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B284" s="7">
+        <v>14101</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D284" s="7">
+        <v>14</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I284" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K284" s="8">
+        <v>2</v>
+      </c>
+      <c r="L284" s="8">
+        <v>0</v>
+      </c>
+      <c r="M284" s="8">
+        <v>45</v>
+      </c>
+      <c r="N284" s="8">
+        <v>0</v>
+      </c>
+      <c r="O284" s="8">
+        <v>42.75</v>
+      </c>
+      <c r="P284" s="8">
+        <v>31</v>
+      </c>
+      <c r="Q284" s="8">
+        <v>0</v>
+      </c>
+      <c r="R284" s="8">
+        <v>30.25</v>
+      </c>
+      <c r="S284" s="8">
+        <v>14</v>
+      </c>
+      <c r="T284" s="8">
+        <v>0</v>
+      </c>
+      <c r="U284" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="V284" s="8">
+        <v>50</v>
+      </c>
+      <c r="W284" s="8">
+        <v>0</v>
+      </c>
+      <c r="X284" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="Y284" s="8">
+        <v>17</v>
+      </c>
+      <c r="Z284" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA284" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB284" s="8">
+        <v>33</v>
+      </c>
+      <c r="AC284" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD284" s="7">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B285" s="7">
+        <v>4101</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D285" s="7">
+        <v>4</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H285" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I285" s="2">
+        <v>220306021</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K285" s="8">
+        <v>1</v>
+      </c>
+      <c r="L285" s="8">
+        <v>0</v>
+      </c>
+      <c r="M285" s="8">
+        <v>104</v>
+      </c>
+      <c r="N285" s="8">
+        <v>0</v>
+      </c>
+      <c r="O285" s="8">
+        <v>85.832999999999998</v>
+      </c>
+      <c r="P285" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q285" s="8">
+        <v>0</v>
+      </c>
+      <c r="R285" s="8">
+        <v>7.5830000000000002</v>
+      </c>
+      <c r="S285" s="8">
+        <v>95</v>
+      </c>
+      <c r="T285" s="8">
+        <v>0</v>
+      </c>
+      <c r="U285" s="8">
+        <v>78.25</v>
+      </c>
+      <c r="V285" s="8">
+        <v>22</v>
+      </c>
+      <c r="W285" s="8">
+        <v>0</v>
+      </c>
+      <c r="X285" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="Y285" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z285" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA285" s="8">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="AB285" s="8">
+        <v>13</v>
+      </c>
+      <c r="AC285" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="7">
+        <v>5.1669999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A286" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B286" s="7">
+        <v>13123</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D286" s="7">
+        <v>13</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I286" s="1">
+        <v>220306021</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K286" s="7">
+        <v>9</v>
+      </c>
+      <c r="L286" s="7">
+        <v>0</v>
+      </c>
+      <c r="M286" s="7">
+        <v>76</v>
+      </c>
+      <c r="N286" s="7">
+        <v>0</v>
+      </c>
+      <c r="O286" s="7">
+        <v>70.832999999999998</v>
+      </c>
+      <c r="P286" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q286" s="7">
+        <v>0</v>
+      </c>
+      <c r="R286" s="7">
+        <v>42.832999999999998</v>
+      </c>
+      <c r="S286" s="7">
+        <v>28</v>
+      </c>
+      <c r="T286" s="7">
+        <v>0</v>
+      </c>
+      <c r="U286" s="7">
+        <v>28</v>
+      </c>
+      <c r="V286" s="7">
+        <v>169</v>
+      </c>
+      <c r="W286" s="7">
+        <v>0</v>
+      </c>
+      <c r="X286" s="7">
+        <v>47</v>
+      </c>
+      <c r="Y286" s="7">
+        <v>98</v>
+      </c>
+      <c r="Z286" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA286" s="7">
+        <v>26.582999999999998</v>
+      </c>
+      <c r="AB286" s="7">
+        <v>71</v>
+      </c>
+      <c r="AC286" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="7">
+        <v>20.417000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
